--- a/biology/Zoologie/Gorgebleue_à_miroir/Gorgebleue_à_miroir.xlsx
+++ b/biology/Zoologie/Gorgebleue_à_miroir/Gorgebleue_à_miroir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
+          <t>Gorgebleue_à_miroir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luscinia svecica
-La Gorgebleue à miroir (Luscinia svecica), aussi orthographié Gorge-bleue, est une espèce de passereaux appartenant à la famille des Muscicapidae. Il existe de nombreuses sous-espèces, mais seules trois d'entre elles sont présentes en Europe, et se distinguent aux couleurs de leur gorge[1].
+La Gorgebleue à miroir (Luscinia svecica), aussi orthographié Gorge-bleue, est une espèce de passereaux appartenant à la famille des Muscicapidae. Il existe de nombreuses sous-espèces, mais seules trois d'entre elles sont présentes en Europe, et se distinguent aux couleurs de leur gorge.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
+          <t>Gorgebleue_à_miroir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa taille, variable selon les sous-espèces, est de 13 à 14 cm de long pour une masse de 14 à 23 grammes et une envergure de 22 à 23 cm. Les autres mensurations sont : 44 à 59 mm pour la queue, 11 à 16 mm pour le bec et 23 à 28 mm pour le tarse.
 L'espèce est aisément reconnaissable à sa large bavette bleue, comportant généralement en son centre une pointe de blanc ou de roux, selon la sous-espèce. Elle est plus visible chez le mâle en livrée nuptiale, alors qu'elle apparaît très pâle, voire pas du tout, chez la femelle et les juvéniles. Cette bavette est bordée en dessous d'un croissant roux. Chez les deux sexes les parties supérieures sont brunes, ainsi que la tête, avec un sourcil blanc.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
+          <t>Gorgebleue_à_miroir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime alimentaire
-La Gorgebleue à miroir est principalement insectivore, mangeant insectes et leurs larves, vers et araignées. Il peut également se nourrir de baies.
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Gorgebleue à miroir est principalement insectivore, mangeant insectes et leurs larves, vers et araignées. Il peut également se nourrir de baies.
 En milieu littoral, la sous-espèce namnetum nourrit ses jeunes avec des diptères, des araignées, des chenilles, des grillons et des talitres.
-Reproduction
-Ces oiseaux reviennent de leur zone d'hivernage entre la mi-mars et la mi-avril.
-La Gorgebleue a deux couvées par an, au printemps. La première ponte a lieu en mai, dans un nid en forme de coupe[2] construit par la femelle, à terre ou dans une cavité peu élevée, avec des herbes sèches, de la mousse, des feuilles mortes. La femelle couve de 5 à 6 œufs, ovales et légèrement piriformes, gris verdâtre et tachés de brun-rouge, dont la taille a pour valeurs extrêmes : 16,4–20,7 × 12,5–15,1 mm[3]. L'éclosion a lieu environ 2 semaines plus tard, et les deux parents participent à l'élevage. La femelle pond sa seconde couvée fin mai début juin.
-Voix
-Le chant de la gorgebleue à miroir est une suite variée de notes flûtées, bourdonnantes, roulées et stridentes. Le cri d'appel est un teck, le chant est constitué de trilles en dipdipdip[3]. Les cris de cette espèce incluent un tchak ou track incisif, un shtick-shtick et un tsi-tchak-tchak incisif[4].
-	Chant de la gorgebleue à miroir
-Cet oiseau est capable d'imiter les voix d'autres espèces d'oiseaux (jusqu'à 35 pour un même mâle[5]) et peut-être aussi d'insectes[6]. On peut l'entendre sur l'audioblog de Sonatura.
 </t>
         </is>
       </c>
@@ -568,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
+          <t>Gorgebleue_à_miroir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,18 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution géographique
-La Gorgebleue vit presque partout en Eurasie, mais est aussi trouvé outre-Atlantique en Amérique du Nord en Alaska.Il existe une grande colonie aux Pays-Bays, dans le secteur de Kinderdijk.
-Il migre en hiver en Espagne, dans la savane de l'Afrique, dans la péninsule arabique, en Inde, en Asie du Sud-Est continentale[7] et sur les côtes de la mer de Chine.
-Habitat
-En période de reproduction, la Gorge-bleue à miroir fréquente les zones humides en particulier les milieux marécageux parsemés de buissons et de vasières, les rives des cours d'eau calmes et les bras morts, les bords des étangs peuplés de saules et de roseaux. La sous-espèce namnetum est inféodée aux marais littoraux et aux marais salants où elle peuple les fossés et les talus avec des tamaris.
-Dans le sud-ouest des Deux-Sèvres et le sud Vendée, elles nichent essentiellement dans les champs de colza. Dès que les fleurs se forment, il est facile d'observer les mâles qui s'y perchent pour chanter.
-Lors des migrations, cet oiseau préfère également les milieux humides mais fréquente aussi les champs de pomme de terre, de betterave, de légumes et de maïs, les buissons et les landes.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oiseaux reviennent de leur zone d'hivernage entre la mi-mars et la mi-avril.
+La Gorgebleue a deux couvées par an, au printemps. La première ponte a lieu en mai, dans un nid en forme de coupe construit par la femelle, à terre ou dans une cavité peu élevée, avec des herbes sèches, de la mousse, des feuilles mortes. La femelle couve de 5 à 6 œufs, ovales et légèrement piriformes, gris verdâtre et tachés de brun-rouge, dont la taille a pour valeurs extrêmes : 16,4–20,7 × 12,5–15,1 mm. L'éclosion a lieu environ 2 semaines plus tard, et les deux parents participent à l'élevage. La femelle pond sa seconde couvée fin mai début juin.
 </t>
         </is>
       </c>
@@ -605,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
+          <t>Gorgebleue_à_miroir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,17 +633,171 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le chant de la gorgebleue à miroir est une suite variée de notes flûtées, bourdonnantes, roulées et stridentes. Le cri d'appel est un teck, le chant est constitué de trilles en dipdipdip. Les cris de cette espèce incluent un tchak ou track incisif, un shtick-shtick et un tsi-tchak-tchak incisif.
+	Chant de la gorgebleue à miroir
+Cet oiseau est capable d'imiter les voix d'autres espèces d'oiseaux (jusqu'à 35 pour un même mâle) et peut-être aussi d'insectes. On peut l'entendre sur l'audioblog de Sonatura.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gorgebleue_à_miroir</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distribution géographique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Gorgebleue vit presque partout en Eurasie, mais est aussi trouvé outre-Atlantique en Amérique du Nord en Alaska.Il existe une grande colonie aux Pays-Bays, dans le secteur de Kinderdijk.
+Il migre en hiver en Espagne, dans la savane de l'Afrique, dans la péninsule arabique, en Inde, en Asie du Sud-Est continentale et sur les côtes de la mer de Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gorgebleue_à_miroir</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En période de reproduction, la Gorge-bleue à miroir fréquente les zones humides en particulier les milieux marécageux parsemés de buissons et de vasières, les rives des cours d'eau calmes et les bras morts, les bords des étangs peuplés de saules et de roseaux. La sous-espèce namnetum est inféodée aux marais littoraux et aux marais salants où elle peuple les fossés et les talus avec des tamaris.
+Dans le sud-ouest des Deux-Sèvres et le sud Vendée, elles nichent essentiellement dans les champs de colza. Dès que les fleurs se forment, il est facile d'observer les mâles qui s'y perchent pour chanter.
+Lors des migrations, cet oiseau préfère également les milieux humides mais fréquente aussi les champs de pomme de terre, de betterave, de légumes et de maïs, les buissons et les landes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gorgebleue_à_miroir</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a originellement été décrite sous le taxon Cyanecula suecica Brehm.
-Sous-espèces
-Cet oiseau est représenté par 10 sous-espèces[8] :
-L. s. svecica (Linnaeus, 1758), est la sous-espèce type (69 à 80 mm pour l'aile pliée du mâle et 65 à 74 mm pour celle de la femelle), quelquefois appelée Gorgebleue de la toundra, présentant un miroir roux sur fond bleu et peuplant la Scandinavie, la Finlande et la Russie, jusqu'à 60e degré de latitude nord[3] ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gorgebleue_à_miroir</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est représenté par 10 sous-espèces :
+L. s. svecica (Linnaeus, 1758), est la sous-espèce type (69 à 80 mm pour l'aile pliée du mâle et 65 à 74 mm pour celle de la femelle), quelquefois appelée Gorgebleue de la toundra, présentant un miroir roux sur fond bleu et peuplant la Scandinavie, la Finlande et la Russie, jusqu'à 60e degré de latitude nord ;
 L. s. abbotti (Richmond, 1896) ;
-L. s. cyanecula (Meisner, 1804), de protonyme Sylvia cyanecula, quelquefois appelée Gorgebleue d'Europe centrale (72 à 80 mm pour l'aile pliée du mâle et 68 à 76 mm pour celle de la femelle), a une touche de blanc sur le bleu de sa gorge[3] ;
+L. s. cyanecula (Meisner, 1804), de protonyme Sylvia cyanecula, quelquefois appelée Gorgebleue d'Europe centrale (72 à 80 mm pour l'aile pliée du mâle et 68 à 76 mm pour celle de la femelle), a une touche de blanc sur le bleu de sa gorge ;
 L. s. kobdensis (Tugarinov, 1929) ;
 L. s. magna (Zarudny &amp; Loudon, 1904) de grande taille comme son nom l'indique et ne présentant habituellement pas de miroir, nichant en Turquie orientale et en Transcaucasie ;
 L. s. namnetum Mayaud, 1934, sous-espèce de petite taille (66 à 72 mm pour l'aile pliée du mâle et 65 à 68 mm pour celle de la femelle) peuplant la façade atlantique française, du Mont-Saint-Michel au Bassin d'Arcachon ;
@@ -643,62 +810,66 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gorgebleue_à_miroir</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est classée par l'UICN en LC (Préoccupation mineure)[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gorgebleue_%C3%A0_miroir</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est classée par l'UICN en LC (Préoccupation mineure).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gorgebleue_à_miroir</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gorgebleue_%C3%A0_miroir</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gorgebleue à miroir bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
